--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_11-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_11-49.xlsx
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>CONCOR 5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>CORNETEARS 1000IU/G AQUEOUS EYE GEL 10 GM</t>
   </si>
   <si>
     <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
@@ -1033,17 +1036,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>82.920000000000002</v>
+        <v>41</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1051,7 +1054,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1059,17 +1062,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>16</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1077,7 +1080,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1085,17 +1088,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1111,13 +1114,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
@@ -1129,7 +1132,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1137,13 +1140,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>169.19999999999999</v>
+        <v>72</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
@@ -1163,13 +1166,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>54</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1189,17 +1192,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>86.5</v>
+        <v>54</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1207,7 +1210,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1215,17 +1218,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>70</v>
+        <v>86.5</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1241,17 +1244,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1267,17 +1270,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1285,7 +1288,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1293,13 +1296,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24.960000000000001</v>
+        <v>108</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
@@ -1319,17 +1322,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>87</v>
+        <v>24.960000000000001</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1337,7 +1340,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1345,17 +1348,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>0.17000000000000001</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1363,7 +1366,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1371,17 +1374,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1403,7 +1406,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1423,13 +1426,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
@@ -1441,7 +1444,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1449,13 +1452,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
@@ -1475,17 +1478,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1493,7 +1496,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1501,17 +1504,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>74.689999999999998</v>
+        <v>168</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
-        <v>0.20000000000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1527,17 +1530,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>18</v>
+        <v>74.689999999999998</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.5</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1553,17 +1556,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1571,7 +1574,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1579,17 +1582,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>102.59999999999999</v>
+        <v>17</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1605,13 +1608,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>40</v>
+        <v>102.59999999999999</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
@@ -1631,7 +1634,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1641,7 +1644,7 @@
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1657,17 +1660,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1675,7 +1678,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1683,17 +1686,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1701,7 +1704,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1709,17 +1712,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1735,17 +1738,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1753,7 +1756,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1761,17 +1764,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1779,7 +1782,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1787,13 +1790,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1801,37 +1804,63 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="11">
-        <v>2762.8699999999999</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="12">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
+        <v>64</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
         <v>65</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c t="s" r="F44" s="13">
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>30</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="11">
+        <v>2803.8699999999999</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="12">
         <v>66</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c t="s" r="I44" s="15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c t="s" r="F45" s="13">
         <v>67</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c t="s" r="I45" s="15">
+        <v>68</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1956,10 +1985,13 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
